--- a/Absen/1. Oktober 2025 - TARBIYAH & DAKWAH DT-R.xlsx
+++ b/Absen/1. Oktober 2025 - TARBIYAH & DAKWAH DT-R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Pengajian\Absen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7782BE97-CB37-46F1-91A7-E0D882D3C4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC07672-FEC3-43E9-BCD4-4FAD1C8BF814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2E39FF77-035B-4F7C-ACEB-1A442C392774}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>NAMA</t>
   </si>
@@ -234,6 +234,18 @@
     <t>Assalamualaikum [nama]
 Saya mau minta keterangannya untuk ketidakhadiran pengajian tanggal [tanggal_1] dan tanggal [tanggal_2]
 Terima kasih…</t>
+  </si>
+  <si>
+    <t>Kurang sehat</t>
+  </si>
+  <si>
+    <t>Pulang malam</t>
+  </si>
+  <si>
+    <t>Perbaikan Wifi</t>
+  </si>
+  <si>
+    <t>Masih kerja</t>
   </si>
 </sst>
 </file>
@@ -570,54 +582,54 @@
     <xf numFmtId="165" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,21 +638,33 @@
   <dxfs count="10">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -701,36 +725,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -784,6 +778,24 @@
         <scheme val="major"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -815,22 +827,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50CAA0CF-06E4-471A-8CAA-E0E3D0553E02}" name="Table1" displayName="Table1" ref="M10:N21" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50CAA0CF-06E4-471A-8CAA-E0E3D0553E02}" name="Table1" displayName="Table1" ref="M10:N21" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="M10:N21" xr:uid="{50CAA0CF-06E4-471A-8CAA-E0E3D0553E02}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7BD02032-E365-49A8-ADAB-44D6FB3AFCD1}" name="Nama" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{41948D79-27FC-4502-92CC-571E48B0487D}" name="Nomor WA" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{7BD02032-E365-49A8-ADAB-44D6FB3AFCD1}" name="Nama" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{41948D79-27FC-4502-92CC-571E48B0487D}" name="Nomor WA" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11B7F338-C63F-40E2-80FF-0AC823156E9D}" name="Table2" displayName="Table2" ref="P26:Q27" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11B7F338-C63F-40E2-80FF-0AC823156E9D}" name="Table2" displayName="Table2" ref="P26:Q27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="P26:Q27" xr:uid="{11B7F338-C63F-40E2-80FF-0AC823156E9D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{84005749-F834-45CA-94CD-2EDD5B1E1F63}" name="Teks WA 1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{29720DB4-DB3A-41BE-9B35-9301A3705ADA}" name="Teks WA 2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{84005749-F834-45CA-94CD-2EDD5B1E1F63}" name="Teks WA 1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{29720DB4-DB3A-41BE-9B35-9301A3705ADA}" name="Teks WA 2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1139,7 +1151,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1161,38 +1173,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
@@ -1214,8 +1226,8 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1243,44 +1255,44 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="40" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="41"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -1305,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="38"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1" t="s">
         <v>62</v>
@@ -1352,7 +1364,7 @@
       <c r="M11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="50" t="s">
+      <c r="N11" s="36" t="s">
         <v>40</v>
       </c>
       <c r="P11" s="1" t="str">
@@ -1393,7 +1405,7 @@
       <c r="M12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="50" t="s">
+      <c r="N12" s="36" t="s">
         <v>41</v>
       </c>
       <c r="P12" s="1" t="str">
@@ -1415,7 +1427,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="F13" s="18" t="b">
         <v>1</v>
       </c>
@@ -1428,12 +1442,12 @@
       <c r="M13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="N13" s="36" t="s">
         <v>42</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>https://wa.me/6282320040021?text=Assalamualaikum%20Mas%20Aswan%0A%0ASaya%20mau%20minta%20keterangannya%20untuk%20ketidakhadiran%20pengajian%20tanggal%2010%20Oktober%202025%0A%0ATerima%20kasih%E2%80%A6</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1450,7 +1464,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="F14" s="18" t="b">
         <v>0</v>
       </c>
@@ -1458,16 +1474,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="M14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="50" t="s">
+      <c r="N14" s="36" t="s">
         <v>43</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>https://wa.me/6281350170682?text=Assalamualaikum%20Pak%20Danik%0A%0ASaya%20mau%20minta%20keterangannya%20untuk%20ketidakhadiran%20pengajian%20tanggal%2010%20Oktober%202025%20dan%20tanggal%2017%20Oktober%202025%0A%0ATerima%20kasih%E2%80%A6</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1498,7 +1516,7 @@
       <c r="M15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="50" t="s">
+      <c r="N15" s="36" t="s">
         <v>44</v>
       </c>
       <c r="P15" s="1" t="str">
@@ -1532,7 +1550,7 @@
       <c r="M16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="50" t="s">
+      <c r="N16" s="36" t="s">
         <v>45</v>
       </c>
       <c r="P16" s="1" t="str">
@@ -1566,7 +1584,7 @@
       <c r="M17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="50" t="s">
+      <c r="N17" s="36" t="s">
         <v>46</v>
       </c>
       <c r="P17" s="1" t="str">
@@ -1602,7 +1620,7 @@
       <c r="M18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N18" s="50" t="s">
+      <c r="N18" s="36" t="s">
         <v>47</v>
       </c>
       <c r="P18" s="1" t="str">
@@ -1636,7 +1654,7 @@
       <c r="M19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="50" t="s">
+      <c r="N19" s="36" t="s">
         <v>48</v>
       </c>
       <c r="P19" s="1" t="str">
@@ -1672,7 +1690,7 @@
       <c r="M20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="50" t="s">
+      <c r="N20" s="36" t="s">
         <v>49</v>
       </c>
       <c r="P20" s="1" t="str">
@@ -1702,20 +1720,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="M21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="50" t="s">
+      <c r="N21" s="36" t="s">
         <v>50</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>https://wa.me/6282229432434?text=Assalamualaikum%20Mas%20Wahap%0A%0ASaya%20mau%20minta%20keterangannya%20untuk%20ketidakhadiran%20pengajian%20tanggal%2017%20Oktober%202025%0A%0ATerima%20kasih%E2%80%A6</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
         <v>5</v>
       </c>
@@ -1739,7 +1759,7 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="21" t="s">
         <v>26</v>
       </c>
@@ -1766,7 +1786,7 @@
       <c r="C25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="35" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1779,10 +1799,10 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="P27" s="51" t="s">
+      <c r="P27" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q27" s="51" t="s">
+      <c r="Q27" s="37" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1802,12 +1822,12 @@
     <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:D21">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:G21">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1843,22 +1863,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
@@ -1897,30 +1917,30 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="26">
         <v>1</v>
       </c>
       <c r="D9" s="26">
         <v>2</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -2176,7 +2196,7 @@
     <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:D21">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
